--- a/arquivos/excel_teste2.xlsx
+++ b/arquivos/excel_teste2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\pythonFlet\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F5EAB-EA76-4F29-9EAA-C17CF866907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF3FDE-A2B7-417B-BDAE-6213D627194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K18" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,18 +469,6 @@
       <c r="E1">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -498,18 +486,6 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -527,18 +503,6 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -556,18 +520,6 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -585,18 +537,6 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -614,18 +554,6 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -643,18 +571,6 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -672,18 +588,6 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -701,18 +605,6 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -730,18 +622,6 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -757,18 +637,6 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" s="1"/>
@@ -783,33 +651,6 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -822,33 +663,6 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -861,33 +675,6 @@
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -900,33 +687,6 @@
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
